--- a/output/not-graded/method-hybrid-results.xlsx
+++ b/output/not-graded/method-hybrid-results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbutl20/PyCharmProjects/nlp-bnf-atc-mapping/output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbutl20/PyCharmProjects/nlp-bnf-atc-mapping/output/not-graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40090CFB-FB52-2840-BC03-96E89D4E78D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0569A3A9-376E-EE45-804D-E4B367D442E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="21900" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="600" windowWidth="37980" windowHeight="20380" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Levenshtein Monge-Elkan" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11991" uniqueCount="3349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11992" uniqueCount="3350">
   <si>
     <t>bnf_chapter</t>
   </si>
@@ -10008,12 +10008,6 @@
     <t>Scorer</t>
   </si>
   <si>
-    <t>No Match</t>
-  </si>
-  <si>
-    <t>Match</t>
-  </si>
-  <si>
     <t>Num of Match</t>
   </si>
   <si>
@@ -10074,7 +10068,16 @@
     <t>Hit Rate</t>
   </si>
   <si>
-    <t>Adj Hit Rate</t>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>Adj. Rate</t>
+  </si>
+  <si>
+    <t>ROC</t>
   </si>
 </sst>
 </file>
@@ -10487,7 +10490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -16801,11 +16804,11 @@
         <v>1</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:N161" si="8">M130</f>
+        <f t="shared" ref="N130:N151" si="8">M130</f>
         <v>1</v>
       </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q161" si="9">L130-SUM(N130:P130)</f>
+        <f t="shared" ref="Q130:Q151" si="9">L130-SUM(N130:P130)</f>
         <v>4</v>
       </c>
     </row>
@@ -24161,11 +24164,11 @@
         <v>5</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:N161" si="8">M130</f>
+        <f t="shared" ref="N130:N151" si="8">M130</f>
         <v>5</v>
       </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q161" si="9">L130-SUM(N130:P130)</f>
+        <f t="shared" ref="Q130:Q151" si="9">L130-SUM(N130:P130)</f>
         <v>0</v>
       </c>
     </row>
@@ -31524,11 +31527,11 @@
         <v>5</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:N161" si="8">M130</f>
+        <f t="shared" ref="N130:N151" si="8">M130</f>
         <v>5</v>
       </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q161" si="9">L130-SUM(N130:P130)</f>
+        <f t="shared" ref="Q130:Q151" si="9">L130-SUM(N130:P130)</f>
         <v>0</v>
       </c>
     </row>
@@ -38881,11 +38884,11 @@
         <v>1</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:N161" si="8">M130</f>
+        <f t="shared" ref="N130:N151" si="8">M130</f>
         <v>1</v>
       </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q161" si="9">L130-SUM(N130:P130)</f>
+        <f t="shared" ref="Q130:Q151" si="9">L130-SUM(N130:P130)</f>
         <v>4</v>
       </c>
     </row>
@@ -46232,11 +46235,11 @@
         <v>1</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:N161" si="8">M130</f>
+        <f t="shared" ref="N130:N151" si="8">M130</f>
         <v>1</v>
       </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q161" si="9">L130-SUM(N130:P130)</f>
+        <f t="shared" ref="Q130:Q151" si="9">L130-SUM(N130:P130)</f>
         <v>4</v>
       </c>
     </row>
@@ -53622,11 +53625,11 @@
         <v>4</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:N161" si="8">M130</f>
+        <f t="shared" ref="N130:N151" si="8">M130</f>
         <v>4</v>
       </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q161" si="9">L130-SUM(N130:P130)</f>
+        <f t="shared" ref="Q130:Q151" si="9">L130-SUM(N130:P130)</f>
         <v>1</v>
       </c>
     </row>
@@ -61015,11 +61018,11 @@
         <v>5</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:N161" si="8">M130</f>
+        <f t="shared" ref="N130:N151" si="8">M130</f>
         <v>5</v>
       </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q161" si="9">L130-SUM(N130:P130)</f>
+        <f t="shared" ref="Q130:Q151" si="9">L130-SUM(N130:P130)</f>
         <v>0</v>
       </c>
     </row>
@@ -68369,11 +68372,11 @@
         <v>1</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:N161" si="8">M130</f>
+        <f t="shared" ref="N130:N151" si="8">M130</f>
         <v>1</v>
       </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q161" si="9">L130-SUM(N130:P130)</f>
+        <f t="shared" ref="Q130:Q151" si="9">L130-SUM(N130:P130)</f>
         <v>4</v>
       </c>
     </row>
@@ -69410,10 +69413,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -69435,59 +69438,62 @@
     <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3325</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3326</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3327</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3328</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3329</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>3330</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3331</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3332</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>3333</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>3334</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>3335</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>3345</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>3336</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>3337</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>3347</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>3338</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>3348</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="2" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B9" ca="1" si="0">COUNTBLANK(INDIRECT("'"&amp;A2&amp;"'!$K$2:$K$151"))</f>
@@ -69550,9 +69556,9 @@
         <v>0.88666666666666671</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
@@ -69615,9 +69621,9 @@
         <v>0.89333333333333331</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
@@ -69680,9 +69686,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
@@ -69745,9 +69751,9 @@
         <v>0.88666666666666671</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3343</v>
+        <v>3341</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
@@ -69810,9 +69816,9 @@
         <v>0.87333333333333329</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3344</v>
+        <v>3342</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
@@ -69875,9 +69881,9 @@
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
@@ -69940,9 +69946,9 @@
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>

--- a/output/not-graded/method-hybrid-results.xlsx
+++ b/output/not-graded/method-hybrid-results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbutl20/PyCharmProjects/nlp-bnf-atc-mapping/output/not-graded/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0569A3A9-376E-EE45-804D-E4B367D442E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD95A7C-96E3-834B-8691-22626FE8C5B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="600" windowWidth="37980" windowHeight="20380" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="600" windowWidth="37980" windowHeight="20380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Levenshtein Monge-Elkan" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,16 @@
     <sheet name="Editex SoftTfIdf" sheetId="8" r:id="rId8"/>
     <sheet name="Analysis Summary" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Jaro Monge-Elkan'!$A$1:$R$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Levenshtein Monge-Elkan'!$A$1:$R$151</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11992" uniqueCount="3350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11993" uniqueCount="3351">
   <si>
     <t>bnf_chapter</t>
   </si>
@@ -10078,6 +10082,9 @@
   </si>
   <si>
     <t>ROC</t>
+  </si>
+  <si>
+    <t>Bal Accuracy</t>
   </si>
 </sst>
 </file>
@@ -10490,9 +10497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N94" sqref="N94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10604,11 +10611,14 @@
         <v>3</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="0">M2</f>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>M2-N2</f>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q33" si="1">L2-SUM(N2:P2)</f>
+        <f t="shared" ref="Q2:Q33" si="0">L2-SUM(N2:P2)</f>
         <v>2</v>
       </c>
     </row>
@@ -10650,11 +10660,15 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <f t="shared" ref="N2:N33" si="1">M3</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="2">M3-N3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -10699,11 +10713,14 @@
         <v>5</v>
       </c>
       <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10748,11 +10765,14 @@
         <v>5</v>
       </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10797,11 +10817,14 @@
         <v>5</v>
       </c>
       <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10846,11 +10869,14 @@
         <v>5</v>
       </c>
       <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10895,11 +10921,14 @@
         <v>5</v>
       </c>
       <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10944,11 +10973,14 @@
         <v>5</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -10993,11 +11025,14 @@
         <v>5</v>
       </c>
       <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11042,11 +11077,14 @@
         <v>2</v>
       </c>
       <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -11091,11 +11129,14 @@
         <v>3</v>
       </c>
       <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -11140,11 +11181,14 @@
         <v>5</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11189,11 +11233,15 @@
         <v>1</v>
       </c>
       <c r="N14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -11238,11 +11286,14 @@
         <v>5</v>
       </c>
       <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11287,11 +11338,14 @@
         <v>2</v>
       </c>
       <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -11336,11 +11390,15 @@
         <v>1</v>
       </c>
       <c r="N17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -11385,11 +11443,14 @@
         <v>3</v>
       </c>
       <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -11434,11 +11495,15 @@
         <v>1</v>
       </c>
       <c r="N19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -11483,11 +11548,14 @@
         <v>4</v>
       </c>
       <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -11532,11 +11600,14 @@
         <v>3</v>
       </c>
       <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -11581,11 +11652,14 @@
         <v>2</v>
       </c>
       <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -11630,11 +11704,14 @@
         <v>4</v>
       </c>
       <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -11679,11 +11756,14 @@
         <v>5</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11728,11 +11808,14 @@
         <v>4</v>
       </c>
       <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -11777,11 +11860,15 @@
         <v>1</v>
       </c>
       <c r="N26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -11826,11 +11913,14 @@
         <v>5</v>
       </c>
       <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11872,12 +11962,19 @@
         <v>0</v>
       </c>
       <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -11921,11 +12018,15 @@
         <v>1</v>
       </c>
       <c r="N29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -11970,11 +12071,14 @@
         <v>5</v>
       </c>
       <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12019,11 +12123,15 @@
         <v>1</v>
       </c>
       <c r="N31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -12068,11 +12176,14 @@
         <v>2</v>
       </c>
       <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -12117,11 +12228,14 @@
         <v>5</v>
       </c>
       <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -12166,8 +12280,11 @@
         <v>3</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N65" si="2">M34</f>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Q34">
         <f t="shared" ref="Q34:Q65" si="3">L34-SUM(N34:P34)</f>
@@ -12215,8 +12332,11 @@
         <v>2</v>
       </c>
       <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <f t="shared" si="3"/>
@@ -12264,8 +12384,12 @@
         <v>1</v>
       </c>
       <c r="N36">
+        <f t="shared" ref="N34:N65" si="4">M36</f>
+        <v>1</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <f t="shared" si="3"/>
@@ -12310,6 +12434,9 @@
         <v>5</v>
       </c>
       <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -12359,8 +12486,11 @@
         <v>3</v>
       </c>
       <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q38">
         <f t="shared" si="3"/>
@@ -12408,8 +12538,11 @@
         <v>2</v>
       </c>
       <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q39">
         <f t="shared" si="3"/>
@@ -12457,8 +12590,12 @@
         <v>1</v>
       </c>
       <c r="N40">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <f t="shared" si="3"/>
@@ -12506,8 +12643,11 @@
         <v>5</v>
       </c>
       <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q41">
         <f t="shared" si="3"/>
@@ -12555,8 +12695,12 @@
         <v>1</v>
       </c>
       <c r="N42">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <f t="shared" si="3"/>
@@ -12604,8 +12748,11 @@
         <v>2</v>
       </c>
       <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q43">
         <f t="shared" si="3"/>
@@ -12653,8 +12800,11 @@
         <v>4</v>
       </c>
       <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="P44">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q44">
         <f t="shared" si="3"/>
@@ -12702,8 +12852,11 @@
         <v>3</v>
       </c>
       <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q45">
         <f t="shared" si="3"/>
@@ -12751,8 +12904,11 @@
         <v>5</v>
       </c>
       <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q46">
         <f t="shared" si="3"/>
@@ -12800,8 +12956,12 @@
         <v>1</v>
       </c>
       <c r="N47">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <f t="shared" si="3"/>
@@ -12849,6 +13009,9 @@
         <v>5</v>
       </c>
       <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -12898,8 +13061,11 @@
         <v>2</v>
       </c>
       <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q49">
         <f t="shared" si="3"/>
@@ -12947,8 +13113,12 @@
         <v>1</v>
       </c>
       <c r="N50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
         <f t="shared" si="3"/>
@@ -12990,12 +13160,19 @@
         <v>0</v>
       </c>
       <c r="N51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q51">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -13039,8 +13216,11 @@
         <v>2</v>
       </c>
       <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="P52">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <f t="shared" si="3"/>
@@ -13088,8 +13268,11 @@
         <v>3</v>
       </c>
       <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="P53">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q53">
         <f t="shared" si="3"/>
@@ -13137,8 +13320,12 @@
         <v>1</v>
       </c>
       <c r="N54">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P54">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
         <f t="shared" si="3"/>
@@ -13186,8 +13373,12 @@
         <v>1</v>
       </c>
       <c r="N55">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P55">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <f t="shared" si="3"/>
@@ -13235,8 +13426,11 @@
         <v>3</v>
       </c>
       <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="P56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q56">
         <f t="shared" si="3"/>
@@ -13284,8 +13478,11 @@
         <v>2</v>
       </c>
       <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="P57">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q57">
         <f t="shared" si="3"/>
@@ -13333,8 +13530,12 @@
         <v>1</v>
       </c>
       <c r="N58">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P58">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
         <f t="shared" si="3"/>
@@ -13382,8 +13583,12 @@
         <v>1</v>
       </c>
       <c r="N59">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P59">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
         <f t="shared" si="3"/>
@@ -13431,8 +13636,12 @@
         <v>1</v>
       </c>
       <c r="N60">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P60">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
         <f t="shared" si="3"/>
@@ -13480,8 +13689,11 @@
         <v>2</v>
       </c>
       <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="P61">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q61">
         <f t="shared" si="3"/>
@@ -13529,8 +13741,11 @@
         <v>2</v>
       </c>
       <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="P62">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q62">
         <f t="shared" si="3"/>
@@ -13578,8 +13793,12 @@
         <v>1</v>
       </c>
       <c r="N63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P63">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <f t="shared" si="3"/>
@@ -13627,8 +13846,11 @@
         <v>3</v>
       </c>
       <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="P64">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q64">
         <f t="shared" si="3"/>
@@ -13676,8 +13898,11 @@
         <v>4</v>
       </c>
       <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="P65">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q65">
         <f t="shared" si="3"/>
@@ -13719,11 +13944,15 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N97" si="4">M66</f>
+        <f t="shared" ref="N66:N97" si="5">M66</f>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q97" si="5">L66-SUM(N66:P66)</f>
+        <f t="shared" ref="Q66:Q97" si="6">L66-SUM(N66:P66)</f>
         <v>5</v>
       </c>
     </row>
@@ -13768,11 +13997,15 @@
         <v>1</v>
       </c>
       <c r="N67">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P130" si="7">M67-N67</f>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -13817,11 +14050,14 @@
         <v>5</v>
       </c>
       <c r="N68">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -13866,11 +14102,14 @@
         <v>2</v>
       </c>
       <c r="N69">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -13912,12 +14151,19 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="48" x14ac:dyDescent="0.2">
@@ -13958,12 +14204,19 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -14007,11 +14260,14 @@
         <v>5</v>
       </c>
       <c r="N72">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14053,11 +14309,15 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14102,11 +14362,15 @@
         <v>2</v>
       </c>
       <c r="N74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="P74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -14151,11 +14415,15 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -14200,11 +14468,14 @@
         <v>4</v>
       </c>
       <c r="N76">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -14249,11 +14520,15 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -14298,11 +14573,14 @@
         <v>3</v>
       </c>
       <c r="N78">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -14347,11 +14625,14 @@
         <v>5</v>
       </c>
       <c r="N79">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14396,11 +14677,15 @@
         <v>1</v>
       </c>
       <c r="N80">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -14445,11 +14730,14 @@
         <v>5</v>
       </c>
       <c r="N81">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14491,11 +14779,15 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -14540,11 +14832,14 @@
         <v>3</v>
       </c>
       <c r="N83">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -14589,11 +14884,14 @@
         <v>3</v>
       </c>
       <c r="N84">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -14638,11 +14936,15 @@
         <v>1</v>
       </c>
       <c r="N85">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -14687,11 +14989,14 @@
         <v>3</v>
       </c>
       <c r="N86">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -14736,11 +15041,14 @@
         <v>4</v>
       </c>
       <c r="N87">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -14785,11 +15093,14 @@
         <v>3</v>
       </c>
       <c r="N88">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -14834,11 +15145,14 @@
         <v>2</v>
       </c>
       <c r="N89">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -14883,11 +15197,14 @@
         <v>2</v>
       </c>
       <c r="N90">
-        <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -14932,11 +15249,14 @@
         <v>3</v>
       </c>
       <c r="N91">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -14981,11 +15301,15 @@
         <v>1</v>
       </c>
       <c r="N92">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -15030,11 +15354,14 @@
         <v>5</v>
       </c>
       <c r="N93">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -15079,11 +15406,14 @@
         <v>5</v>
       </c>
       <c r="N94">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -15128,11 +15458,14 @@
         <v>5</v>
       </c>
       <c r="N95">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -15177,11 +15510,14 @@
         <v>5</v>
       </c>
       <c r="N96">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -15226,11 +15562,14 @@
         <v>3</v>
       </c>
       <c r="N97">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -15275,11 +15614,14 @@
         <v>5</v>
       </c>
       <c r="N98">
-        <f t="shared" ref="N98:N129" si="6">M98</f>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="Q98">
-        <f t="shared" ref="Q98:Q129" si="7">L98-SUM(N98:P98)</f>
+        <f t="shared" ref="Q98:Q129" si="8">L98-SUM(N98:P98)</f>
         <v>0</v>
       </c>
     </row>
@@ -15318,11 +15660,15 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="N98:N129" si="9">M99</f>
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -15367,11 +15713,14 @@
         <v>5</v>
       </c>
       <c r="N100">
-        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15416,11 +15765,15 @@
         <v>1</v>
       </c>
       <c r="N101">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -15465,11 +15818,14 @@
         <v>3</v>
       </c>
       <c r="N102">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -15514,11 +15870,15 @@
         <v>1</v>
       </c>
       <c r="N103">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -15557,11 +15917,15 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -15606,11 +15970,15 @@
         <v>1</v>
       </c>
       <c r="N105">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -15655,11 +16023,14 @@
         <v>3</v>
       </c>
       <c r="N106">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -15704,11 +16075,15 @@
         <v>1</v>
       </c>
       <c r="N107">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -15753,11 +16128,14 @@
         <v>5</v>
       </c>
       <c r="N108">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15799,11 +16177,15 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -15848,11 +16230,15 @@
         <v>1</v>
       </c>
       <c r="N110">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -15894,11 +16280,15 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -15943,11 +16333,15 @@
         <v>1</v>
       </c>
       <c r="N112">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -15992,11 +16386,14 @@
         <v>2</v>
       </c>
       <c r="N113">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -16041,11 +16438,15 @@
         <v>1</v>
       </c>
       <c r="N114">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -16084,11 +16485,15 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -16133,11 +16538,15 @@
         <v>1</v>
       </c>
       <c r="N116">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -16182,11 +16591,14 @@
         <v>3</v>
       </c>
       <c r="N117">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -16231,11 +16643,14 @@
         <v>4</v>
       </c>
       <c r="N118">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
+      <c r="P118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -16277,11 +16692,15 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -16320,11 +16739,15 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -16369,11 +16792,15 @@
         <v>1</v>
       </c>
       <c r="N121">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -16415,11 +16842,14 @@
         <v>2</v>
       </c>
       <c r="N122">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -16464,11 +16894,15 @@
         <v>5</v>
       </c>
       <c r="N123">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16513,11 +16947,15 @@
         <v>1</v>
       </c>
       <c r="N124">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -16562,11 +17000,14 @@
         <v>2</v>
       </c>
       <c r="N125">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
     </row>
@@ -16608,11 +17049,15 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
     </row>
@@ -16657,11 +17102,14 @@
         <v>3</v>
       </c>
       <c r="N127">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
     </row>
@@ -16706,11 +17154,15 @@
         <v>1</v>
       </c>
       <c r="N128">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
     </row>
@@ -16755,11 +17207,14 @@
         <v>5</v>
       </c>
       <c r="N129">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -16804,11 +17259,15 @@
         <v>1</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:N151" si="8">M130</f>
-        <v>1</v>
+        <f t="shared" ref="N130:N151" si="10">M130</f>
+        <v>1</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q151" si="9">L130-SUM(N130:P130)</f>
+        <f t="shared" ref="Q130:Q151" si="11">L130-SUM(N130:P130)</f>
         <v>4</v>
       </c>
     </row>
@@ -16853,11 +17312,15 @@
         <v>1</v>
       </c>
       <c r="N131">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <f t="shared" ref="P131:P151" si="12">M131-N131</f>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -16902,11 +17365,14 @@
         <v>5</v>
       </c>
       <c r="N132">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -16951,11 +17417,14 @@
         <v>2</v>
       </c>
       <c r="N133">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P133">
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="Q133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -17000,11 +17469,15 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -17049,11 +17522,14 @@
         <v>4</v>
       </c>
       <c r="N135">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -17098,11 +17574,14 @@
         <v>2</v>
       </c>
       <c r="N136">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -17147,11 +17626,14 @@
         <v>5</v>
       </c>
       <c r="N137">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17196,11 +17678,14 @@
         <v>4</v>
       </c>
       <c r="N138">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -17245,11 +17730,15 @@
         <v>1</v>
       </c>
       <c r="N139">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -17294,11 +17783,14 @@
         <v>3</v>
       </c>
       <c r="N140">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -17343,11 +17835,14 @@
         <v>4</v>
       </c>
       <c r="N141">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="P141">
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -17392,11 +17887,15 @@
         <v>1</v>
       </c>
       <c r="N142">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -17441,11 +17940,15 @@
         <v>1</v>
       </c>
       <c r="N143">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -17487,12 +17990,19 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -17536,11 +18046,15 @@
         <v>1</v>
       </c>
       <c r="N145">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -17585,11 +18099,15 @@
         <v>1</v>
       </c>
       <c r="N146">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -17634,11 +18152,14 @@
         <v>3</v>
       </c>
       <c r="N147">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="Q147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -17683,11 +18204,14 @@
         <v>2</v>
       </c>
       <c r="N148">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -17732,11 +18256,14 @@
         <v>3</v>
       </c>
       <c r="N149">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="Q149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -17781,11 +18308,15 @@
         <v>1</v>
       </c>
       <c r="N150">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -17830,11 +18361,14 @@
         <v>5</v>
       </c>
       <c r="N151">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="P151">
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
       <c r="Q151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -17845,11 +18379,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17961,15 +18496,18 @@
         <v>3</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N33" si="0">M2</f>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>M2-N2</f>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q33" si="1">L2-SUM(N2:P2)</f>
+        <f t="shared" ref="Q2:Q33" si="0">L2-SUM(N2:P2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -18007,11 +18545,15 @@
         <v>0</v>
       </c>
       <c r="N3">
+        <f t="shared" ref="N2:N33" si="1">M3</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="2">M3-N3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
@@ -18056,11 +18598,14 @@
         <v>5</v>
       </c>
       <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -18105,11 +18650,14 @@
         <v>5</v>
       </c>
       <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -18154,11 +18702,14 @@
         <v>5</v>
       </c>
       <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -18203,11 +18754,14 @@
         <v>5</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -18252,11 +18806,14 @@
         <v>5</v>
       </c>
       <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q8">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -18301,11 +18858,14 @@
         <v>5</v>
       </c>
       <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -18350,11 +18910,14 @@
         <v>5</v>
       </c>
       <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q10">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -18399,11 +18962,14 @@
         <v>2</v>
       </c>
       <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q11">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -18448,11 +19014,14 @@
         <v>3</v>
       </c>
       <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -18497,15 +19066,18 @@
         <v>5</v>
       </c>
       <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -18546,11 +19118,15 @@
         <v>1</v>
       </c>
       <c r="N14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -18595,11 +19171,14 @@
         <v>5</v>
       </c>
       <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -18644,11 +19223,14 @@
         <v>2</v>
       </c>
       <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -18693,11 +19275,14 @@
         <v>2</v>
       </c>
       <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q17">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -18742,15 +19327,18 @@
         <v>3</v>
       </c>
       <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q18">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -18791,11 +19379,15 @@
         <v>1</v>
       </c>
       <c r="N19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -18840,11 +19432,14 @@
         <v>4</v>
       </c>
       <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -18889,11 +19484,14 @@
         <v>3</v>
       </c>
       <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -18938,11 +19536,14 @@
         <v>3</v>
       </c>
       <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q22">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -18987,11 +19588,14 @@
         <v>4</v>
       </c>
       <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -19036,11 +19640,14 @@
         <v>5</v>
       </c>
       <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -19085,15 +19692,18 @@
         <v>4</v>
       </c>
       <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -19134,11 +19744,15 @@
         <v>1</v>
       </c>
       <c r="N26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -19183,15 +19797,18 @@
         <v>5</v>
       </c>
       <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -19229,15 +19846,22 @@
         <v>0</v>
       </c>
       <c r="N28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -19278,11 +19902,15 @@
         <v>1</v>
       </c>
       <c r="N29">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -19327,15 +19955,18 @@
         <v>5</v>
       </c>
       <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -19376,11 +20007,15 @@
         <v>1</v>
       </c>
       <c r="N31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -19425,11 +20060,14 @@
         <v>3</v>
       </c>
       <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -19474,11 +20112,14 @@
         <v>5</v>
       </c>
       <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -19523,8 +20164,11 @@
         <v>3</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N65" si="2">M34</f>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="Q34">
         <f t="shared" ref="Q34:Q65" si="3">L34-SUM(N34:P34)</f>
@@ -19572,15 +20216,18 @@
         <v>2</v>
       </c>
       <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q35">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -19621,8 +20268,12 @@
         <v>1</v>
       </c>
       <c r="N36">
+        <f t="shared" ref="N34:N65" si="4">M36</f>
+        <v>1</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <f t="shared" si="3"/>
@@ -19667,8 +20318,11 @@
         <v>5</v>
       </c>
       <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q37">
         <f t="shared" si="3"/>
@@ -19716,8 +20370,11 @@
         <v>3</v>
       </c>
       <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q38">
         <f t="shared" si="3"/>
@@ -19765,15 +20422,18 @@
         <v>2</v>
       </c>
       <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q39">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -19814,8 +20474,12 @@
         <v>1</v>
       </c>
       <c r="N40">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
         <f t="shared" si="3"/>
@@ -19863,15 +20527,18 @@
         <v>5</v>
       </c>
       <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q41">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -19912,8 +20579,12 @@
         <v>1</v>
       </c>
       <c r="N42">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
         <f t="shared" si="3"/>
@@ -19961,8 +20632,11 @@
         <v>2</v>
       </c>
       <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q43">
         <f t="shared" si="3"/>
@@ -20010,8 +20684,11 @@
         <v>4</v>
       </c>
       <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="P44">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q44">
         <f t="shared" si="3"/>
@@ -20059,8 +20736,11 @@
         <v>3</v>
       </c>
       <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q45">
         <f t="shared" si="3"/>
@@ -20108,8 +20788,11 @@
         <v>5</v>
       </c>
       <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q46">
         <f t="shared" si="3"/>
@@ -20157,8 +20840,11 @@
         <v>2</v>
       </c>
       <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q47">
         <f t="shared" si="3"/>
@@ -20206,6 +20892,9 @@
         <v>5</v>
       </c>
       <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -20255,15 +20944,19 @@
         <v>2</v>
       </c>
       <c r="N49">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q49">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -20304,15 +20997,19 @@
         <v>1</v>
       </c>
       <c r="N50">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="80" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -20347,6 +21044,10 @@
         <v>0</v>
       </c>
       <c r="N51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -20396,8 +21097,12 @@
         <v>2</v>
       </c>
       <c r="N52">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P52">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q52">
         <f t="shared" si="3"/>
@@ -20445,15 +21150,19 @@
         <v>3</v>
       </c>
       <c r="N53">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P53">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q53">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -20494,8 +21203,12 @@
         <v>1</v>
       </c>
       <c r="N54">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P54">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
         <f t="shared" si="3"/>
@@ -20543,8 +21256,12 @@
         <v>2</v>
       </c>
       <c r="N55">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P55">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q55">
         <f t="shared" si="3"/>
@@ -20592,8 +21309,12 @@
         <v>3</v>
       </c>
       <c r="N56">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q56">
         <f t="shared" si="3"/>
@@ -20641,15 +21362,19 @@
         <v>4</v>
       </c>
       <c r="N57">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P57">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q57">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -20690,15 +21415,19 @@
         <v>1</v>
       </c>
       <c r="N58">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P58">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>22</v>
       </c>
@@ -20739,15 +21468,19 @@
         <v>1</v>
       </c>
       <c r="N59">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P59">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>28</v>
       </c>
@@ -20788,8 +21521,12 @@
         <v>1</v>
       </c>
       <c r="N60">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P60">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
         <f t="shared" si="3"/>
@@ -20837,8 +21574,12 @@
         <v>2</v>
       </c>
       <c r="N61">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P61">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q61">
         <f t="shared" si="3"/>
@@ -20886,15 +21627,19 @@
         <v>2</v>
       </c>
       <c r="N62">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P62">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q62">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -20935,8 +21680,12 @@
         <v>1</v>
       </c>
       <c r="N63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P63">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
         <f t="shared" si="3"/>
@@ -20984,8 +21733,12 @@
         <v>5</v>
       </c>
       <c r="N64">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P64">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q64">
         <f t="shared" si="3"/>
@@ -21033,15 +21786,19 @@
         <v>4</v>
       </c>
       <c r="N65">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="P65">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q65">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="80" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -21076,11 +21833,15 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N97" si="4">M66</f>
+        <f t="shared" ref="N66:N97" si="5">M66</f>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q97" si="5">L66-SUM(N66:P66)</f>
+        <f t="shared" ref="Q66:Q97" si="6">L66-SUM(N66:P66)</f>
         <v>5</v>
       </c>
     </row>
@@ -21125,11 +21886,15 @@
         <v>2</v>
       </c>
       <c r="N67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P130" si="7">M67-N67</f>
+        <v>0</v>
+      </c>
       <c r="Q67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -21174,11 +21939,15 @@
         <v>5</v>
       </c>
       <c r="N68">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -21223,15 +21992,19 @@
         <v>2</v>
       </c>
       <c r="N69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="P69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -21272,15 +22045,18 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -21318,12 +22094,19 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -21367,15 +22150,19 @@
         <v>5</v>
       </c>
       <c r="N72">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -21413,12 +22200,19 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="32" x14ac:dyDescent="0.2">
@@ -21462,15 +22256,19 @@
         <v>2</v>
       </c>
       <c r="N74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="P74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -21511,11 +22309,15 @@
         <v>1</v>
       </c>
       <c r="N75">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -21560,15 +22362,19 @@
         <v>4</v>
       </c>
       <c r="N76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
+      <c r="P76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q76">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>22</v>
       </c>
@@ -21609,11 +22415,15 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -21658,11 +22468,14 @@
         <v>3</v>
       </c>
       <c r="N78">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="7"/>
+        <v>2</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -21707,15 +22520,18 @@
         <v>5</v>
       </c>
       <c r="N79">
-        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>28</v>
       </c>
@@ -21756,11 +22572,15 @@
         <v>1</v>
       </c>
       <c r="N80">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -21805,15 +22625,19 @@
         <v>5</v>
       </c>
       <c r="N81">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>25</v>
       </c>
@@ -21851,11 +22675,15 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -21900,11 +22728,15 @@
         <v>4</v>
       </c>
       <c r="N83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
+      <c r="P83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -21949,15 +22781,19 @@
         <v>3</v>
       </c>
       <c r="N84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
+      <c r="P84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -21998,11 +22834,15 @@
         <v>1</v>
       </c>
       <c r="N85">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -22047,11 +22887,15 @@
         <v>5</v>
       </c>
       <c r="N86">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -22096,11 +22940,15 @@
         <v>4</v>
       </c>
       <c r="N87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
+      <c r="P87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -22145,11 +22993,15 @@
         <v>3</v>
       </c>
       <c r="N88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
+      <c r="P88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -22194,11 +23046,15 @@
         <v>5</v>
       </c>
       <c r="N89">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -22243,11 +23099,15 @@
         <v>2</v>
       </c>
       <c r="N90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="P90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -22292,11 +23152,15 @@
         <v>3</v>
       </c>
       <c r="N91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
+      <c r="P91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -22341,11 +23205,15 @@
         <v>3</v>
       </c>
       <c r="N92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
+      <c r="P92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -22390,11 +23258,15 @@
         <v>5</v>
       </c>
       <c r="N93">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -22439,11 +23311,15 @@
         <v>5</v>
       </c>
       <c r="N94">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -22488,11 +23364,15 @@
         <v>5</v>
       </c>
       <c r="N95">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -22537,11 +23417,15 @@
         <v>5</v>
       </c>
       <c r="N96">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -22586,11 +23470,15 @@
         <v>3</v>
       </c>
       <c r="N97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
+      <c r="P97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -22635,15 +23523,19 @@
         <v>5</v>
       </c>
       <c r="N98">
-        <f t="shared" ref="N98:N129" si="6">M98</f>
-        <v>5</v>
+        <f t="shared" ref="N98:N129" si="8">M98</f>
+        <v>5</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <f t="shared" ref="Q98:Q129" si="7">L98-SUM(N98:P98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q98:Q129" si="9">L98-SUM(N98:P98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -22678,11 +23570,15 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -22727,15 +23623,19 @@
         <v>5</v>
       </c>
       <c r="N100">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -22776,11 +23676,15 @@
         <v>1</v>
       </c>
       <c r="N101">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -22825,15 +23729,19 @@
         <v>3</v>
       </c>
       <c r="N102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
+      <c r="P102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -22874,15 +23782,19 @@
         <v>1</v>
       </c>
       <c r="N103">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -22917,15 +23829,19 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -22966,11 +23882,15 @@
         <v>1</v>
       </c>
       <c r="N105">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -23015,15 +23935,19 @@
         <v>3</v>
       </c>
       <c r="N106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
+      <c r="P106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -23064,11 +23988,15 @@
         <v>1</v>
       </c>
       <c r="N107">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -23113,15 +24041,19 @@
         <v>5</v>
       </c>
       <c r="N108">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>18</v>
       </c>
@@ -23159,15 +24091,19 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -23208,15 +24144,19 @@
         <v>1</v>
       </c>
       <c r="N110">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="80" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -23254,15 +24194,19 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -23303,11 +24247,15 @@
         <v>1</v>
       </c>
       <c r="N112">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -23352,15 +24300,19 @@
         <v>5</v>
       </c>
       <c r="N113">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -23401,15 +24353,19 @@
         <v>1</v>
       </c>
       <c r="N114">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>24</v>
       </c>
@@ -23444,15 +24400,19 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -23493,11 +24453,15 @@
         <v>1</v>
       </c>
       <c r="N116">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -23542,11 +24506,15 @@
         <v>3</v>
       </c>
       <c r="N117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
+      <c r="P117">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -23591,15 +24559,19 @@
         <v>4</v>
       </c>
       <c r="N118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
+      <c r="P118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q118">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -23637,15 +24609,19 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -23680,15 +24656,19 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>26</v>
       </c>
@@ -23729,11 +24709,15 @@
         <v>1</v>
       </c>
       <c r="N121">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -23775,11 +24759,15 @@
         <v>2</v>
       </c>
       <c r="N122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
+      <c r="P122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -23824,15 +24812,19 @@
         <v>5</v>
       </c>
       <c r="N123">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -23873,11 +24865,15 @@
         <v>1</v>
       </c>
       <c r="N124">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -23922,15 +24918,19 @@
         <v>2</v>
       </c>
       <c r="N125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
+      <c r="P125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -23968,11 +24968,15 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -24017,11 +25021,15 @@
         <v>3</v>
       </c>
       <c r="N127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
+      <c r="P127">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -24066,11 +25074,15 @@
         <v>2</v>
       </c>
       <c r="N128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
+      <c r="P128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -24115,11 +25127,15 @@
         <v>5</v>
       </c>
       <c r="N129">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -24164,15 +25180,19 @@
         <v>5</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:N151" si="8">M130</f>
-        <v>5</v>
+        <f t="shared" ref="N130:N151" si="10">M130</f>
+        <v>5</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q151" si="9">L130-SUM(N130:P130)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" ref="Q130:Q151" si="11">L130-SUM(N130:P130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -24213,11 +25233,15 @@
         <v>1</v>
       </c>
       <c r="N131">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <f t="shared" ref="P131:P151" si="12">M131-N131</f>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -24262,11 +25286,15 @@
         <v>5</v>
       </c>
       <c r="N132">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -24311,15 +25339,19 @@
         <v>2</v>
       </c>
       <c r="N133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
+      <c r="P133">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -24360,11 +25392,15 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -24409,11 +25445,15 @@
         <v>4</v>
       </c>
       <c r="N135">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
+      <c r="P135">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -24458,11 +25498,15 @@
         <v>3</v>
       </c>
       <c r="N136">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="P136">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -24507,11 +25551,15 @@
         <v>5</v>
       </c>
       <c r="N137">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -24556,11 +25604,15 @@
         <v>5</v>
       </c>
       <c r="N138">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -24605,11 +25657,15 @@
         <v>2</v>
       </c>
       <c r="N139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
+      <c r="P139">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -24654,11 +25710,15 @@
         <v>3</v>
       </c>
       <c r="N140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="P140">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -24703,15 +25763,19 @@
         <v>4</v>
       </c>
       <c r="N141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
+      <c r="P141">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q141">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -24752,15 +25816,19 @@
         <v>1</v>
       </c>
       <c r="N142">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -24801,15 +25869,19 @@
         <v>1</v>
       </c>
       <c r="N143">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>22</v>
       </c>
@@ -24847,15 +25919,19 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -24896,15 +25972,19 @@
         <v>1</v>
       </c>
       <c r="N145">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -24945,11 +26025,15 @@
         <v>1</v>
       </c>
       <c r="N146">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -24994,11 +26078,15 @@
         <v>3</v>
       </c>
       <c r="N147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="P147">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -25043,11 +26131,15 @@
         <v>5</v>
       </c>
       <c r="N148">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -25092,15 +26184,19 @@
         <v>3</v>
       </c>
       <c r="N149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="P149">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>28</v>
       </c>
@@ -25141,11 +26237,15 @@
         <v>1</v>
       </c>
       <c r="N150">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -25190,15 +26290,29 @@
         <v>5</v>
       </c>
       <c r="N151">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P151">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R151" xr:uid="{0E52E040-A802-5C4A-9406-BA8C271F7BBA}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -25207,9 +26321,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2:P151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -25324,6 +26438,10 @@
         <f t="shared" ref="N2:N33" si="0">M2</f>
         <v>3</v>
       </c>
+      <c r="P2">
+        <f>M2-N2</f>
+        <v>0</v>
+      </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q33" si="1">L2-SUM(N2:P2)</f>
         <v>2</v>
@@ -25370,6 +26488,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="2">M3-N3</f>
+        <v>0</v>
+      </c>
       <c r="Q3">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -25419,6 +26541,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="P4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q4">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25468,6 +26594,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25517,6 +26647,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q6">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25566,6 +26700,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25615,6 +26753,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25664,6 +26806,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q9">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25713,6 +26859,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25762,6 +26912,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q11">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -25811,6 +26965,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q12">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -25860,6 +27018,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -25909,6 +27071,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q14">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -25958,6 +27124,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="P15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q15">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26007,6 +27177,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="P16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q16">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -26056,6 +27230,10 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="P17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q17">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -26105,6 +27283,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="P18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q18">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -26154,6 +27336,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="P19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q19">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -26203,6 +27389,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="P20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q20">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -26252,6 +27442,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="P21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q21">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -26301,6 +27495,10 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q22">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -26350,6 +27548,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="P23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q23">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -26399,6 +27601,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="P24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q24">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26448,6 +27654,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="P25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q25">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26497,6 +27707,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q26">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -26546,6 +27760,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="P27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26592,6 +27810,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="P28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q28">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -26641,6 +27863,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="P29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q29">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -26690,6 +27916,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="P30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q30">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26739,6 +27969,10 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q31">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -26788,6 +28022,10 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q32">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -26837,6 +28075,10 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q33">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -26883,11 +28125,15 @@
         <v>3</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N65" si="2">M34</f>
+        <f t="shared" ref="N34:N65" si="3">M34</f>
         <v>3</v>
       </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q34">
-        <f t="shared" ref="Q34:Q65" si="3">L34-SUM(N34:P34)</f>
+        <f t="shared" ref="Q34:Q65" si="4">L34-SUM(N34:P34)</f>
         <v>2</v>
       </c>
     </row>
@@ -26932,11 +28178,15 @@
         <v>2</v>
       </c>
       <c r="N35">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -26981,11 +28231,15 @@
         <v>1</v>
       </c>
       <c r="N36">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -27027,11 +28281,15 @@
         <v>5</v>
       </c>
       <c r="N37">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -27076,11 +28334,15 @@
         <v>3</v>
       </c>
       <c r="N38">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -27125,11 +28387,15 @@
         <v>2</v>
       </c>
       <c r="N39">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -27174,11 +28440,15 @@
         <v>1</v>
       </c>
       <c r="N40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -27223,11 +28493,15 @@
         <v>5</v>
       </c>
       <c r="N41">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -27272,11 +28546,15 @@
         <v>1</v>
       </c>
       <c r="N42">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -27321,11 +28599,15 @@
         <v>2</v>
       </c>
       <c r="N43">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -27370,11 +28652,15 @@
         <v>4</v>
       </c>
       <c r="N44">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P44">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -27419,11 +28705,15 @@
         <v>3</v>
       </c>
       <c r="N45">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -27468,11 +28758,15 @@
         <v>5</v>
       </c>
       <c r="N46">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -27517,11 +28811,15 @@
         <v>2</v>
       </c>
       <c r="N47">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -27566,11 +28864,15 @@
         <v>5</v>
       </c>
       <c r="N48">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -27615,11 +28917,15 @@
         <v>2</v>
       </c>
       <c r="N49">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -27664,11 +28970,15 @@
         <v>1</v>
       </c>
       <c r="N50">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -27707,11 +29017,15 @@
         <v>0</v>
       </c>
       <c r="N51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -27756,11 +29070,15 @@
         <v>4</v>
       </c>
       <c r="N52">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P52">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -27805,11 +29123,15 @@
         <v>4</v>
       </c>
       <c r="N53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P53">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -27854,11 +29176,15 @@
         <v>1</v>
       </c>
       <c r="N54">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P54">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -27903,11 +29229,15 @@
         <v>3</v>
       </c>
       <c r="N55">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P55">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -27952,11 +29282,15 @@
         <v>3</v>
       </c>
       <c r="N56">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -28001,11 +29335,15 @@
         <v>5</v>
       </c>
       <c r="N57">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P57">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -28050,11 +29388,15 @@
         <v>1</v>
       </c>
       <c r="N58">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P58">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -28099,11 +29441,15 @@
         <v>2</v>
       </c>
       <c r="N59">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P59">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -28148,11 +29494,15 @@
         <v>1</v>
       </c>
       <c r="N60">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P60">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -28197,11 +29547,15 @@
         <v>2</v>
       </c>
       <c r="N61">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="P61">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -28246,11 +29600,15 @@
         <v>5</v>
       </c>
       <c r="N62">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P62">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -28295,11 +29653,15 @@
         <v>1</v>
       </c>
       <c r="N63">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P63">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -28344,11 +29706,15 @@
         <v>5</v>
       </c>
       <c r="N64">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P64">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -28393,11 +29759,15 @@
         <v>4</v>
       </c>
       <c r="N65">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="P65">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -28436,11 +29806,15 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <f t="shared" ref="N66:N97" si="4">M66</f>
+        <f t="shared" ref="N66:N97" si="5">M66</f>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q97" si="5">L66-SUM(N66:P66)</f>
+        <f t="shared" ref="Q66:Q97" si="6">L66-SUM(N66:P66)</f>
         <v>5</v>
       </c>
     </row>
@@ -28485,11 +29859,15 @@
         <v>3</v>
       </c>
       <c r="N67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P130" si="7">M67-N67</f>
+        <v>0</v>
+      </c>
       <c r="Q67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -28534,11 +29912,15 @@
         <v>5</v>
       </c>
       <c r="N68">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -28583,11 +29965,15 @@
         <v>2</v>
       </c>
       <c r="N69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="P69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -28632,11 +30018,15 @@
         <v>1</v>
       </c>
       <c r="N70">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -28678,11 +30068,15 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -28727,11 +30121,15 @@
         <v>5</v>
       </c>
       <c r="N72">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -28773,11 +30171,15 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -28822,11 +30224,15 @@
         <v>2</v>
       </c>
       <c r="N74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="P74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -28871,11 +30277,15 @@
         <v>2</v>
       </c>
       <c r="N75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="P75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -28920,11 +30330,15 @@
         <v>4</v>
       </c>
       <c r="N76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
+      <c r="P76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -28969,11 +30383,15 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -29018,11 +30436,15 @@
         <v>3</v>
       </c>
       <c r="N78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
+      <c r="P78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -29067,11 +30489,15 @@
         <v>5</v>
       </c>
       <c r="N79">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29116,11 +30542,15 @@
         <v>1</v>
       </c>
       <c r="N80">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -29165,11 +30595,15 @@
         <v>5</v>
       </c>
       <c r="N81">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29211,11 +30645,15 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
     </row>
@@ -29260,11 +30698,15 @@
         <v>4</v>
       </c>
       <c r="N83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
+      <c r="P83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -29309,11 +30751,15 @@
         <v>3</v>
       </c>
       <c r="N84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
+      <c r="P84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -29358,11 +30804,15 @@
         <v>1</v>
       </c>
       <c r="N85">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -29407,11 +30857,15 @@
         <v>5</v>
       </c>
       <c r="N86">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29456,11 +30910,15 @@
         <v>4</v>
       </c>
       <c r="N87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
+      <c r="P87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -29505,11 +30963,15 @@
         <v>3</v>
       </c>
       <c r="N88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
+      <c r="P88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -29554,11 +31016,15 @@
         <v>5</v>
       </c>
       <c r="N89">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29603,11 +31069,15 @@
         <v>2</v>
       </c>
       <c r="N90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="P90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
@@ -29652,11 +31122,15 @@
         <v>3</v>
       </c>
       <c r="N91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
+      <c r="P91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -29701,11 +31175,15 @@
         <v>3</v>
       </c>
       <c r="N92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
+      <c r="P92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -29750,11 +31228,15 @@
         <v>5</v>
       </c>
       <c r="N93">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29799,11 +31281,15 @@
         <v>5</v>
       </c>
       <c r="N94">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29848,11 +31334,15 @@
         <v>5</v>
       </c>
       <c r="N95">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29897,11 +31387,15 @@
         <v>5</v>
       </c>
       <c r="N96">
-        <f t="shared" si="4"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -29946,11 +31440,15 @@
         <v>3</v>
       </c>
       <c r="N97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
+      <c r="P97">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
@@ -29995,11 +31493,15 @@
         <v>5</v>
       </c>
       <c r="N98">
-        <f t="shared" ref="N98:N129" si="6">M98</f>
-        <v>5</v>
+        <f t="shared" ref="N98:N129" si="8">M98</f>
+        <v>5</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <f t="shared" ref="Q98:Q129" si="7">L98-SUM(N98:P98)</f>
+        <f t="shared" ref="Q98:Q129" si="9">L98-SUM(N98:P98)</f>
         <v>0</v>
       </c>
     </row>
@@ -30038,11 +31540,15 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -30087,11 +31593,15 @@
         <v>5</v>
       </c>
       <c r="N100">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -30136,11 +31646,15 @@
         <v>1</v>
       </c>
       <c r="N101">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -30185,11 +31699,15 @@
         <v>3</v>
       </c>
       <c r="N102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
+      <c r="P102">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -30234,11 +31752,15 @@
         <v>1</v>
       </c>
       <c r="N103">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -30277,11 +31799,15 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -30326,11 +31852,15 @@
         <v>3</v>
       </c>
       <c r="N105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
+      <c r="P105">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -30375,11 +31905,15 @@
         <v>3</v>
       </c>
       <c r="N106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
+      <c r="P106">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -30424,11 +31958,15 @@
         <v>1</v>
       </c>
       <c r="N107">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -30473,11 +32011,15 @@
         <v>5</v>
       </c>
       <c r="N108">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -30519,11 +32061,15 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -30568,11 +32114,15 @@
         <v>1</v>
       </c>
       <c r="N110">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -30614,11 +32164,15 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -30663,11 +32217,15 @@
         <v>1</v>
       </c>
       <c r="N112">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -30712,11 +32270,15 @@
         <v>5</v>
       </c>
       <c r="N113">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -30761,11 +32323,15 @@
         <v>1</v>
       </c>
       <c r="N114">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -30804,11 +32370,15 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -30853,11 +32423,15 @@
         <v>1</v>
       </c>
       <c r="N116">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -30902,11 +32476,15 @@
         <v>3</v>
       </c>
       <c r="N117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
+      <c r="P117">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -30951,11 +32529,15 @@
         <v>4</v>
       </c>
       <c r="N118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
+      <c r="P118">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -31000,11 +32582,15 @@
         <v>1</v>
       </c>
       <c r="N119">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -31043,11 +32629,15 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -31092,11 +32682,15 @@
         <v>1</v>
       </c>
       <c r="N121">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -31138,11 +32732,15 @@
         <v>2</v>
       </c>
       <c r="N122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
+      <c r="P122">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -31187,11 +32785,15 @@
         <v>5</v>
       </c>
       <c r="N123">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -31236,11 +32838,15 @@
         <v>4</v>
       </c>
       <c r="N124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
+      <c r="P124">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -31285,11 +32891,15 @@
         <v>4</v>
       </c>
       <c r="N125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
+      <c r="P125">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -31331,11 +32941,15 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -31380,11 +32994,15 @@
         <v>3</v>
       </c>
       <c r="N127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
+      <c r="P127">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -31429,11 +33047,15 @@
         <v>2</v>
       </c>
       <c r="N128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
+      <c r="P128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="Q128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
     </row>
@@ -31478,11 +33100,15 @@
         <v>5</v>
       </c>
       <c r="N129">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -31527,11 +33153,15 @@
         <v>5</v>
       </c>
       <c r="N130">
-        <f t="shared" ref="N130:N151" si="8">M130</f>
-        <v>5</v>
+        <f t="shared" ref="N130:N151" si="10">M130</f>
+        <v>5</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q151" si="9">L130-SUM(N130:P130)</f>
+        <f t="shared" ref="Q130:Q151" si="11">L130-SUM(N130:P130)</f>
         <v>0</v>
       </c>
     </row>
@@ -31576,11 +33206,15 @@
         <v>1</v>
       </c>
       <c r="N131">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P131">
+        <f t="shared" ref="P131:P150" si="12">M131-N131</f>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -31625,11 +33259,15 @@
         <v>5</v>
       </c>
       <c r="N132">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -31674,11 +33312,15 @@
         <v>2</v>
       </c>
       <c r="N133">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
+      <c r="P133">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q133">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -31723,11 +33365,15 @@
         <v>1</v>
       </c>
       <c r="N134">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -31772,11 +33418,15 @@
         <v>5</v>
       </c>
       <c r="N135">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -31821,11 +33471,15 @@
         <v>5</v>
       </c>
       <c r="N136">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -31870,11 +33524,15 @@
         <v>5</v>
       </c>
       <c r="N137">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -31919,11 +33577,15 @@
         <v>5</v>
       </c>
       <c r="N138">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -31968,11 +33630,15 @@
         <v>2</v>
       </c>
       <c r="N139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
+      <c r="P139">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -32017,11 +33683,15 @@
         <v>3</v>
       </c>
       <c r="N140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="P140">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -32066,11 +33736,15 @@
         <v>4</v>
       </c>
       <c r="N141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
+      <c r="P141">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -32115,11 +33789,15 @@
         <v>1</v>
       </c>
       <c r="N142">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -32164,11 +33842,15 @@
         <v>1</v>
       </c>
       <c r="N143">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -32210,11 +33892,15 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
@@ -32259,11 +33945,15 @@
         <v>1</v>
       </c>
       <c r="N145">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P145">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -32308,11 +33998,15 @@
         <v>1</v>
       </c>
       <c r="N146">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -32357,11 +34051,15 @@
         <v>3</v>
       </c>
       <c r="N147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="P147">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -32406,11 +34104,15 @@
         <v>5</v>
       </c>
       <c r="N148">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -32455,11 +34157,15 @@
         <v>3</v>
       </c>
       <c r="N149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
+      <c r="P149">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -32504,11 +34210,15 @@
         <v>1</v>
       </c>
       <c r="N150">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
@@ -32553,11 +34263,15 @@
         <v>5</v>
       </c>
       <c r="N151">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="P151">
+        <f>M151-N151</f>
+        <v>0</v>
       </c>
       <c r="Q151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -32570,9 +34284,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32686,6 +34400,10 @@
       <c r="N2">
         <f t="shared" ref="N2:N33" si="0">M2</f>
         <v>3</v>
+      </c>
+      <c r="P2">
+        <f>M2-N2</f>
+        <v>0</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2:Q33" si="1">L2-SUM(N2:P2)</f>
@@ -69413,10 +71131,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -69427,18 +71145,18 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3325</v>
       </c>
@@ -69476,22 +71194,25 @@
         <v>3334</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>3350</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>3335</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>3345</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>3336</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>3348</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>3349</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3337</v>
       </c>
@@ -69509,54 +71230,58 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E9" ca="1" si="3">SUM(INDIRECT("'"&amp;A2&amp;"'!$N$2:$N$151"))</f>
-        <v>368</v>
+        <v>161</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F9" ca="1" si="4">SUM(INDIRECT("'"&amp;A2&amp;"'!$O$2:$O$151"))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G9" ca="1" si="5">SUM(INDIRECT("'"&amp;A2&amp;"'!$P$2:$P$151"))</f>
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H9" ca="1" si="6">SUM(INDIRECT("'"&amp;A2&amp;"'!$Q$2:$Q$151"))</f>
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" ref="I2:I9" ca="1" si="7">E2/(E2+F2)</f>
-        <v>1</v>
+        <v>0.96987951807228912</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" ref="J2:J9" ca="1" si="8">H2/(H2+G2)</f>
-        <v>1</v>
+        <v>0.64554794520547942</v>
       </c>
       <c r="K2" s="3">
         <f t="shared" ref="K2:K9" ca="1" si="9">E2/(E2+G2)</f>
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="L2" s="3">
         <f t="shared" ref="L2:L9" ca="1" si="10">(E2+H2)/SUM(E2:H2)</f>
-        <v>1</v>
+        <v>0.71733333333333338</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" ref="M2:M9" ca="1" si="11">(2*E2)/((2*E2)+G2+F2)</f>
-        <v>1</v>
-      </c>
-      <c r="N2" s="4">
-        <f t="shared" ref="N2:N9" ca="1" si="12">(COUNTIF(INDIRECT("'"&amp;A2&amp;"'!$N$2:$N$151"), "&gt;0")/(B2+C2))</f>
-        <v>0.88666666666666671</v>
+        <f t="shared" ref="M2:M9" ca="1" si="11">(I2+J2)/2</f>
+        <v>0.80771373163888427</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" ref="N2:N9" ca="1" si="12">(2*E2)/((2*E2)+G2+F2)</f>
+        <v>0.60299625468164797</v>
       </c>
       <c r="O2" s="4">
-        <f t="shared" ref="O2:O9" ca="1" si="13">COUNTA(INDIRECT("'"&amp;A2&amp;"'!$O$2:$O$151"))/B2</f>
-        <v>0</v>
+        <f t="shared" ref="O2:O9" ca="1" si="13">(COUNTIF(INDIRECT("'"&amp;A2&amp;"'!$N$2:$N$151"), "&gt;0")/(B2+C2))</f>
+        <v>0.84</v>
       </c>
       <c r="P2" s="4">
-        <f t="shared" ref="P2:P9" ca="1" si="14">(COUNTIF(INDIRECT("'"&amp;A2&amp;"'!$N$2:$N$151"),"&gt;0")+COUNTA(INDIRECT("'"&amp;A2&amp;"'!$O$2:$O$151")))/(B2+C2)</f>
-        <v>0.88666666666666671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P2:P9" ca="1" si="14">COUNTA(INDIRECT("'"&amp;A2&amp;"'!$O$2:$O$151"))/B2</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" ref="Q2:Q9" ca="1" si="15">(COUNTIF(INDIRECT("'"&amp;A2&amp;"'!$N$2:$N$151"),"&gt;0")+COUNTA(INDIRECT("'"&amp;A2&amp;"'!$O$2:$O$151")))/(B2+C2)</f>
+        <v>0.87333333333333329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3338</v>
       </c>
@@ -69574,54 +71299,58 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="3"/>
-        <v>401</v>
+        <v>297</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="6"/>
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="J3" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0.76888888888888884</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0.74064837905236913</v>
       </c>
       <c r="L3" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0.85733333333333328</v>
       </c>
       <c r="M3" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
+        <v>0.87944444444444447</v>
+      </c>
+      <c r="N3" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.89333333333333331</v>
+        <v>0.84736091298145511</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>0.89333333333333331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0.1875</v>
+      </c>
+      <c r="Q3" s="4">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.88666666666666671</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3339</v>
       </c>
@@ -69673,20 +71402,24 @@
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <f t="shared" ca="1" si="15"/>
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3340</v>
       </c>
@@ -69738,20 +71471,24 @@
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.88666666666666671</v>
+        <v>1</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.88666666666666671</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" ca="1" si="15"/>
         <v>0.88666666666666671</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3341</v>
       </c>
@@ -69803,20 +71540,24 @@
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.87333333333333329</v>
+        <v>1</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.87333333333333329</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <f t="shared" ca="1" si="15"/>
         <v>0.87333333333333329</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3342</v>
       </c>
@@ -69868,20 +71609,24 @@
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.96666666666666667</v>
+        <v>1</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" ca="1" si="15"/>
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3343</v>
       </c>
@@ -69933,20 +71678,24 @@
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.96666666666666667</v>
+        <v>1</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <f t="shared" ca="1" si="15"/>
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3344</v>
       </c>
@@ -69998,16 +71747,20 @@
         <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0.87333333333333329</v>
+        <v>1</v>
       </c>
       <c r="O9" s="4">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>0.87333333333333329</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" ca="1" si="15"/>
         <v>0.87333333333333329</v>
       </c>
     </row>
